--- a/Docs/lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghita\Desktop\Lab01\CheckLists\CheckLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\an3\sem6\VVSS\Lab01\tasks\Docs\lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA26B13-7BCA-4683-999F-E1AEDCA4C74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA4732F-9897-42A6-8DD0-3BB382C7EF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -222,6 +222,72 @@
   </si>
   <si>
     <t>Numele unor clase nu specifica exact rolul lor, clasa Controller avand un nume vag avand in vedere ca gestioneaza fereastra principala a aplicatiei</t>
+  </si>
+  <si>
+    <t>Move this trailing comment on the provious empty line</t>
+  </si>
+  <si>
+    <t>Era cod comentat la finalul unei linii</t>
+  </si>
+  <si>
+    <t>Nu mai e</t>
+  </si>
+  <si>
+    <t>NewEditController, 148</t>
+  </si>
+  <si>
+    <t>NewEditController, 91-96</t>
+  </si>
+  <si>
+    <t>This block of commented-out lines of code should be removed</t>
+  </si>
+  <si>
+    <t>Era o sectiune de cod comentat</t>
+  </si>
+  <si>
+    <t>NewEditController, 207</t>
+  </si>
+  <si>
+    <t>Replace this is of System.out or System.err a logger</t>
+  </si>
+  <si>
+    <t>Era System.out.println()</t>
+  </si>
+  <si>
+    <t>S-a folosit un logger in schimb</t>
+  </si>
+  <si>
+    <t>Notificator, 62</t>
+  </si>
+  <si>
+    <t>Remove useless curly braces around statement</t>
+  </si>
+  <si>
+    <t>Nu mai sunt</t>
+  </si>
+  <si>
+    <t>TaskService, 43, 49</t>
+  </si>
+  <si>
+    <t>Immediately return this expression instead of assigning it to a temporary variable</t>
+  </si>
+  <si>
+    <t>Resultatul era retinul intr-o variabila inloc sa se returneze direct</t>
+  </si>
+  <si>
+    <t>Se returneaza direct rezultatul</t>
+  </si>
+  <si>
+    <t>Erau acolade in plus</t>
+  </si>
+  <si>
+    <t>LinkedTaskList, 137-139</t>
+  </si>
+  <si>
+    <t>Remove this unused private method</t>
+  </si>
+  <si>
+    <t>Era o functie nefolosita</t>
   </si>
 </sst>
 </file>
@@ -451,6 +517,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -493,7 +560,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,19 +924,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -883,7 +949,7 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="17">
@@ -894,14 +960,14 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="3">
@@ -912,14 +978,14 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>57</v>
       </c>
       <c r="J5" s="3">
@@ -931,15 +997,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1148,7 +1214,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1168,19 +1234,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1193,7 +1259,7 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="17">
@@ -1204,14 +1270,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="3">
@@ -1222,14 +1288,14 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>57</v>
       </c>
       <c r="J5" s="3">
@@ -1241,15 +1307,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1480,19 +1546,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1505,7 +1571,7 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="17">
@@ -1516,14 +1582,14 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="3">
@@ -1534,14 +1600,14 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>57</v>
       </c>
       <c r="J5" s="3">
@@ -1553,15 +1619,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1813,18 +1879,18 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="6"/>
@@ -1835,19 +1901,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1860,7 +1926,7 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="22" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="17">
@@ -1871,12 +1937,12 @@
       <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="3">
@@ -1887,12 +1953,12 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="22" t="s">
         <v>57</v>
       </c>
       <c r="J5" s="3">
@@ -1904,8 +1970,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1925,64 +1991,112 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -2135,11 +2249,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\an3\sem6\VVSS\Lab01\tasks\Docs\lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA4732F-9897-42A6-8DD0-3BB382C7EF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9E24D2-BAB1-475F-AC6E-5FF1390FEFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -134,9 +134,6 @@
     <t>R02</t>
   </si>
   <si>
-    <t>R04</t>
-  </si>
-  <si>
     <t>R05</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
   </si>
   <si>
     <t>Pentru functionalitatiile F02,F03,F04,F05 nu sunt specificate detalii, cerinta fiind descrisa vag: ce se afiseaza mai exact in momentul afisarii unui task, ce detalii se modifica pentru un task, dupa ce criteriu se sterge un task, etc etc</t>
-  </si>
-  <si>
-    <t>Este specificat faptul ca informatiile se preiau dintr-un fisier binar sau text, insa nu se dau detalii la ce contine mai exact fisierul respectiv si cu ce se initializeaza aplicatia in momentul pornirii ei.</t>
   </si>
   <si>
     <t>Nu exista suficiente detalii pentru fiecare functionalitate descrisa</t>
@@ -903,8 +897,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +906,7 @@
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
     <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="61.5703125" style="6" customWidth="1"/>
     <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
@@ -950,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -968,7 +962,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J4" s="3">
         <v>233</v>
@@ -979,14 +973,14 @@
         <v>9</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J5" s="3">
         <v>233</v>
@@ -1030,7 +1024,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1043,7 +1037,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1055,18 +1049,14 @@
       <c r="D12" s="1"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1074,11 +1064,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1096,11 +1086,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1190,7 +1180,7 @@
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1215,7 +1205,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1213,7 @@
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
     <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" style="6" customWidth="1"/>
     <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="6"/>
@@ -1260,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1278,7 +1268,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J4" s="3">
         <v>233</v>
@@ -1289,14 +1279,14 @@
         <v>10</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J5" s="3">
         <v>233</v>
@@ -1336,11 +1326,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1349,11 +1339,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1362,11 +1352,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1501,7 +1491,7 @@
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1516,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J5"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1562,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1590,7 +1580,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J4" s="3">
         <v>233</v>
@@ -1601,14 +1591,14 @@
         <v>9</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="34"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J5" s="3">
         <v>233</v>
@@ -1648,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1663,13 +1653,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1678,13 +1668,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1855,7 +1845,7 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1879,8 +1869,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,7 +1917,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1943,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J4" s="3">
         <v>233</v>
@@ -1959,7 +1949,7 @@
         <v>19</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J5" s="3">
         <v>233</v>
@@ -1991,111 +1981,111 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
